--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/cursor/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34896C2-0E79-6F47-80BB-5A93A67288A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB537C-14C1-BC46-B8D3-60B972A0CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="3" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="9" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="9.1" sheetId="1" r:id="rId1"/>
     <sheet name="9.2" sheetId="2" r:id="rId2"/>
     <sheet name="9.3" sheetId="3" r:id="rId3"/>
     <sheet name="9.4" sheetId="4" r:id="rId4"/>
+    <sheet name="9.5" sheetId="11" r:id="rId5"/>
+    <sheet name="9.6" sheetId="12" r:id="rId6"/>
+    <sheet name="9.7" sheetId="13" r:id="rId7"/>
+    <sheet name="9.8" sheetId="14" r:id="rId8"/>
+    <sheet name="9.9" sheetId="15" r:id="rId9"/>
+    <sheet name="9.10" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="13">
   <si>
     <t>机号</t>
   </si>
@@ -83,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,8 +125,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +183,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CAF50"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +232,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,6 +737,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A972C-525F-2F46-BC73-51A7776B7718}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="19" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="9">
+        <v>146.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="9">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>159.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="10">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="9">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="9">
+        <v>162.6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41.82</v>
+      </c>
+      <c r="D7" s="10">
+        <v>32.4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>38.18</v>
+      </c>
+      <c r="G7" s="9">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EC877E-3212-4940-A9F5-6E656C25CBFB}">
   <dimension ref="A1:G7"/>
@@ -841,7 +1089,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1006,6 +1254,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1013,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE56891-4CED-C747-B95A-B8EB4E7F2DB2}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1185,4 +1434,806 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B1E-E256-CB4C-AB55-7B0D2D5CA631}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>143.16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>156.4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>156.84</v>
+      </c>
+      <c r="G2" s="7">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>143.16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>155</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>156.84</v>
+      </c>
+      <c r="G3" s="4">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>143.16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>156.84</v>
+      </c>
+      <c r="G4" s="4">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>143.16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>150.5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>156.84</v>
+      </c>
+      <c r="G5" s="4">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>143.16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>156.84</v>
+      </c>
+      <c r="G6" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>38.18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41.82</v>
+      </c>
+      <c r="G7" s="7">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBFE053-F563-C641-85C9-58547B5F8BA0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38.18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41.82</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FEF586-2D97-CD42-97B9-B9B848C726FB}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38.18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41.82</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AB99FE-17BA-5441-A3E0-94C40C5275CD}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="9">
+        <v>159.1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="10">
+        <v>150.1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="9">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="10">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="9">
+        <v>146.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="9">
+        <v>166</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41.82</v>
+      </c>
+      <c r="D7" s="10">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>38.18</v>
+      </c>
+      <c r="G7" s="9">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F16C43-6191-094E-95EC-7F7B1AE6546F}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="10">
+        <v>134</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="10">
+        <v>146.4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="9">
+        <v>157.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="9">
+        <v>158</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="9">
+        <v>160.1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="9">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41.82</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>38.18</v>
+      </c>
+      <c r="G7" s="10">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/cursor/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB537C-14C1-BC46-B8D3-60B972A0CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DFF3E9-AEE7-E24A-ACE7-364F53DE2577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="9" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="10" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="9.1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="9.8" sheetId="14" r:id="rId8"/>
     <sheet name="9.9" sheetId="15" r:id="rId9"/>
     <sheet name="9.10" sheetId="16" r:id="rId10"/>
+    <sheet name="9.11" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="15">
   <si>
     <t>机号</t>
   </si>
@@ -84,12 +85,20 @@
   <si>
     <t>A09</t>
   </si>
+  <si>
+    <t>早班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产牌号不符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +174,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -221,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,9 +271,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +281,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -741,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A972C-525F-2F46-BC73-51A7776B7718}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -771,138 +808,319 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="19" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="9">
         <v>119.6</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="8">
         <v>146.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="8">
         <v>163.19999999999999</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="8">
         <v>159.19999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="9">
         <v>151.19999999999999</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="8">
         <v>157.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="8">
         <v>162.6</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="8">
         <v>158.69999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
         <v>41.82</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>32.4</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
         <v>38.18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>38.200000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1692D4C3-DBE8-824C-95C9-7078FF10C9DC}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="11">
+        <v>158.5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="12">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="12">
+        <v>149.1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="11">
+        <v>143.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="11">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="11">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="11">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="11">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="11">
+        <v>172.3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="11">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>41.82</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11">
+        <v>38.18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1445,9 +1663,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="6"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
       <c r="A1" s="5" t="s">
@@ -1491,7 +1706,7 @@
       <c r="F2" s="4">
         <v>156.84</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>154.5</v>
       </c>
     </row>
@@ -1606,7 +1821,7 @@
       <c r="F7" s="4">
         <v>41.82</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>34.200000000000003</v>
       </c>
     </row>
@@ -1901,157 +2116,157 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="8">
         <v>159.1</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="8">
         <v>159.9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="9">
         <v>150.1</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="8">
         <v>147.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="19" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="9">
         <v>136.19999999999999</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="8">
         <v>146.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="8">
         <v>166</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="8">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
         <v>41.82</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>37</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
         <v>38.18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>38.799999999999997</v>
       </c>
     </row>
@@ -2072,163 +2287,163 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="9">
         <v>134</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="8">
         <v>156.80000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="9">
         <v>146.4</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="8">
         <v>157.19999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="8">
         <v>158</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="8">
         <v>155.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="8">
         <v>160.1</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="8">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>156.84</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="8">
         <v>163.69999999999999</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9">
-        <v>143.16</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="8">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
         <v>41.82</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>11.6</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
         <v>38.18</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>33.200000000000003</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/cursor/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DFF3E9-AEE7-E24A-ACE7-364F53DE2577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2BAFA-D39A-344A-8254-C2EAD5771CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" activeTab="10" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" firstSheet="5" activeTab="17" xr2:uid="{3444A8B1-1C99-294C-899F-DBB504825B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="9.1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <sheet name="9.9" sheetId="15" r:id="rId9"/>
     <sheet name="9.10" sheetId="16" r:id="rId10"/>
     <sheet name="9.11" sheetId="17" r:id="rId11"/>
+    <sheet name="9.12" sheetId="19" r:id="rId12"/>
+    <sheet name="9.13" sheetId="20" r:id="rId13"/>
+    <sheet name="9.14" sheetId="21" r:id="rId14"/>
+    <sheet name="9.15" sheetId="22" r:id="rId15"/>
+    <sheet name="9.16" sheetId="23" r:id="rId16"/>
+    <sheet name="9.17" sheetId="24" r:id="rId17"/>
+    <sheet name="9.18" sheetId="25" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="16">
   <si>
     <t>机号</t>
   </si>
@@ -91,6 +98,9 @@
   </si>
   <si>
     <t>生产牌号不符</t>
+  </si>
+  <si>
+    <t>生产牌号不符</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +206,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -252,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +308,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -950,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1692D4C3-DBE8-824C-95C9-7078FF10C9DC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1105,7 +1135,7 @@
         <v>41.82</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1114,13 +1144,1164 @@
         <v>38.18</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E73A5BF-78C2-5E41-B618-8F2A25470663}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D2" s="9">
+        <v>124.4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D3" s="9">
+        <v>146.6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D4" s="8">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D5" s="8">
+        <v>159.6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>154.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>156.84</v>
+      </c>
+      <c r="D6" s="8">
+        <v>169.4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143.16</v>
+      </c>
+      <c r="G6" s="8">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>41.82</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>38.18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA9FB3B-6E3D-814D-8F88-FA0A1A770CD8}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38.18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41.82</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46BD1C-0E7E-2042-B479-73A8454C617E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15">
+        <v>38.18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15">
+        <v>41.82</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ACE3BF-650C-C04E-9E5F-5582E7167D31}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G2" s="3">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>164.1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G4" s="3">
+        <v>142.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G5" s="2">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>162</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G6" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.91</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BC7A9B-6BB0-634D-AEC3-B2134D1DF6E3}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>143.9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G2" s="3">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>125.1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G3" s="3">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G4" s="2">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>146.5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>161.9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G6" s="3">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.91</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963FCF98-AF9F-FE48-AF82-97BA07E70313}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G2" s="3">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G3" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>149</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G4" s="2">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>116.4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G5" s="2">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G6" s="2">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.91</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0714B8-9DCD-3643-B2AB-AD89AD0ED3AF}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G2" s="3">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G3" s="2">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>149</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G4" s="2">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>116.4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G5" s="2">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>143.16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>156.84</v>
+      </c>
+      <c r="G6" s="2">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="37" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.91</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2102,6 +3283,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
